--- a/110-downloads---suivre-la-mise-à-jour-de-lig-modele/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/110-downloads---suivre-la-mise-à-jour-de-lig-modele/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T08:17:16+00:00</t>
+    <t>2024-12-11T08:25:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
